--- a/manuscript/tables/S3_gwas_cat.xlsx
+++ b/manuscript/tables/S3_gwas_cat.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
-    <t xml:space="preserve">Table S3. NHGRI-EBI GWAS catalogue results for the antidepressant meta-analysis GWAS</t>
+    <t xml:space="preserve">Table S3. NHGRI-EBI GWAS catalogue lookup for the antidepressant meta-analysis GWAS</t>
   </si>
   <si>
     <t xml:space="preserve">Results split by ancestries and phenotypes for fixed and MRMEGA meta-analysis GWAS.(A) N06A-AFR, (B) N06A-EAS, (C) N06A-EUR, (D) N06A-SAS, (E) N06AA-AFR, (F) N06AA-EUR, (G) N06AB-AFR, (H) N06AB-EUR, (I) N06AB-MID, (J) N06AB-SAS and (K) MRMEGA</t>
